--- a/Resources/configPH.xlsx
+++ b/Resources/configPH.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>screenName</t>
   </si>
@@ -157,9 +157,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>D:\\Automation\\ExcelGenerator\\Resources\\dsrProfileData.xlsx</t>
-  </si>
-  <si>
     <t>Price Structure Excel</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Vat Price</t>
   </si>
   <si>
-    <t>D:\\Automation\\ExcelGenerator\\Resources\\productPrice.xlsx</t>
-  </si>
-  <si>
     <t>NUM</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
     <t>outlet change track excel</t>
   </si>
   <si>
+    <t>EXCEL_UPLOAD</t>
+  </si>
+  <si>
     <t>getGeoHierarchyCode</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>OUTLET_CREATION_UPLOAD</t>
   </si>
   <si>
-    <t>OUTLET CREATION UPLOAD</t>
-  </si>
-  <si>
     <t>Outlet Long Name*</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Mobile Number*</t>
   </si>
   <si>
-    <t>Longitude*</t>
-  </si>
-  <si>
     <t>COORDINATES</t>
   </si>
   <si>
@@ -262,10 +253,73 @@
     <t>execute</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>D:\Automation\ExcelGenerator\Resources\ExcelTemplateForOutletCreation.xlsx</t>
+    <t>Latitude*</t>
+  </si>
+  <si>
+    <t>dsrProfileData.xlsx</t>
+  </si>
+  <si>
+    <t>productPrice.xlsx</t>
+  </si>
+  <si>
+    <t>ExcelTemplateForOutletCreation.xlsx</t>
+  </si>
+  <si>
+    <t>OutletExcel.xlsx</t>
+  </si>
+  <si>
+    <t>SECTION_BULK_UPLOAD</t>
+  </si>
+  <si>
+    <t>Section Bulk Upload</t>
+  </si>
+  <si>
+    <t>Kiran PJP DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHA </t>
+  </si>
+  <si>
+    <t>section_bulk_file.xlsx</t>
+  </si>
+  <si>
+    <t>Distributor excel upload</t>
+  </si>
+  <si>
+    <t>DISTRIBUTOR_EXCEL_UPLOAD</t>
+  </si>
+  <si>
+    <t>STMI PASIG</t>
+  </si>
+  <si>
+    <t>distributorProfileBulkUpdate.xlsx</t>
+  </si>
+  <si>
+    <t>Validation Excel Upload</t>
+  </si>
+  <si>
+    <t>VALIDATION_EXCEL_UPLOAD</t>
+  </si>
+  <si>
+    <t>Excel_Validation.xlsx</t>
+  </si>
+  <si>
+    <t>upload base pack excel</t>
+  </si>
+  <si>
+    <t>BASE_PACK_EXCEL</t>
+  </si>
+  <si>
+    <t>basepack.xlsx</t>
+  </si>
+  <si>
+    <t>Outlet Segment Mapping</t>
+  </si>
+  <si>
+    <t>OutletSegmentMapping.xlsx</t>
+  </si>
+  <si>
+    <t>OUTLET_SEGMENT_MAPPING</t>
   </si>
 </sst>
 </file>
@@ -601,16 +655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
     <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -629,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -643,15 +697,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -660,68 +712,154 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -744,7 +882,7 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -755,7 +893,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -766,7 +904,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -777,7 +915,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -788,7 +926,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -805,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -827,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -843,7 +981,7 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -854,10 +992,10 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -876,57 +1014,90 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>67</v>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +1110,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1036,13 +1207,13 @@
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1050,13 +1221,13 @@
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1064,13 +1235,13 @@
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -1078,13 +1249,13 @@
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1092,21 +1263,21 @@
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -1115,15 +1286,15 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1134,13 +1305,16 @@
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/configPH.xlsx
+++ b/Resources/configPH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\ExcelGenerator\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okayker\IdeaProjects\ExcelGenerator\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
   <si>
     <t>screenName</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>OUTLET_SEGMENT_MAPPING</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -699,7 +705,9 @@
       <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -714,7 +722,9 @@
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -729,7 +739,9 @@
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -741,7 +753,9 @@
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -756,7 +770,9 @@
       <c r="D6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -771,7 +787,9 @@
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -786,7 +804,9 @@
       <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -801,7 +821,9 @@
       <c r="D9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -816,7 +838,9 @@
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -831,7 +855,9 @@
       <c r="D11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -846,7 +872,9 @@
       <c r="D12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/configPH.xlsx
+++ b/Resources/configPH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okayker\IdeaProjects\ExcelGenerator\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\ExcelGenerator\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>screenName</t>
   </si>
@@ -142,9 +142,6 @@
     <t>dateFrom</t>
   </si>
   <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
     <t>dateTo</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>DOWNLOAD_ONLY</t>
   </si>
   <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>OB0011</t>
-  </si>
-  <si>
     <t>outlet change track excel</t>
   </si>
   <si>
@@ -325,7 +316,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>0000000001</t>
+  </si>
+  <si>
+    <t>ProductEnrichmentComponentApproval.xlsx</t>
   </si>
 </sst>
 </file>
@@ -369,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,7 +661,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -689,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -703,15 +700,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -720,161 +715,145 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -910,7 +889,7 @@
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -921,7 +900,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -932,7 +911,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -943,7 +922,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -954,7 +933,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -970,8 +949,9 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
+      <c r="C7" s="4" t="str">
+        <f ca="1" xml:space="preserve"> TEXT(TODAY() - 6, "yyyy-mm-dd")</f>
+        <v>2025-09-20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -979,10 +959,11 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f ca="1">TEXT(TODAY(), "yyyy-mm-dd")</f>
+        <v>2025-09-26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -990,10 +971,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1001,15 +982,15 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1020,10 +1001,10 @@
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1042,90 +1023,90 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1119,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1235,13 +1216,13 @@
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1249,13 +1230,13 @@
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1263,13 +1244,13 @@
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -1277,13 +1258,13 @@
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1291,21 +1272,21 @@
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -1314,15 +1295,15 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -1333,13 +1314,13 @@
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>

--- a/Resources/configPH.xlsx
+++ b/Resources/configPH.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>screenName</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Kiran PJP DM</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA </t>
-  </si>
-  <si>
     <t>section_bulk_file.xlsx</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>ProductEnrichmentComponentApproval.xlsx</t>
+  </si>
+  <si>
+    <t>DHA Section</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -715,9 +715,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -732,7 +734,9 @@
       <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -744,7 +748,9 @@
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -760,7 +766,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -777,7 +783,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -791,69 +797,79 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -865,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -951,7 +967,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f ca="1" xml:space="preserve"> TEXT(TODAY() - 6, "yyyy-mm-dd")</f>
-        <v>2025-09-20</v>
+        <v>2025-09-23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -963,7 +979,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f ca="1">TEXT(TODAY(), "yyyy-mm-dd")</f>
-        <v>2025-09-26</v>
+        <v>2025-09-29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -974,7 +990,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1095,18 +1111,18 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
